--- a/waiting_list.xlsx
+++ b/waiting_list.xlsx
@@ -64,9 +64,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,92 +421,24 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>1767026666270</v>
       </c>
       <c r="B2" t="str">
-        <v>Syam Sundar</v>
+        <v>Syam Sundar Kudumala</v>
       </c>
       <c r="C2" t="str">
-        <v>kudumalasyamsundar@gmail.com</v>
+        <v>syamsundarkudumala@gmail.com</v>
       </c>
       <c r="D2" t="str">
-        <v/>
-      </c>
-      <c r="E2" s="1">
-        <v>46020.5444062963</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Syam Sundar Kudumala</v>
-      </c>
-      <c r="C3" t="str">
-        <v>syamsundarkudumala@gmail.com</v>
-      </c>
-      <c r="D3" t="str">
         <v>+918186063661</v>
       </c>
-      <c r="E3" s="1">
-        <v>46020.55413068287</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Syam Sundar Kudumala</v>
-      </c>
-      <c r="C4" t="str">
-        <v>syamsundarkudumala@gmail.com</v>
-      </c>
-      <c r="D4" t="str">
-        <v>+918186063661</v>
-      </c>
-      <c r="E4" s="1">
-        <v>46020.55464523148</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Syam Sundar Kudumala</v>
-      </c>
-      <c r="C5" t="str">
-        <v>syamsundarkudumala@gmail.com</v>
-      </c>
-      <c r="D5" t="str">
-        <v>+918186063661</v>
-      </c>
-      <c r="E5" s="1">
-        <v>46020.555860636574</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Syam Sundar</v>
-      </c>
-      <c r="C6" t="str">
-        <v>kudumalasyamsundar@gmail.com</v>
-      </c>
-      <c r="D6" t="str">
-        <v/>
-      </c>
-      <c r="E6" s="1">
-        <v>46020.56017747685</v>
+      <c r="E2" t="str">
+        <v>2025-12-29T16:44:26.270Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
   </ignoredErrors>
 </worksheet>
 </file>